--- a/data/trans_dic/PER_DISPO_VERDE-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,76; 88,19</t>
+          <t>81,43; 88,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,07; 87,03</t>
+          <t>80,64; 87,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,97; 86,85</t>
+          <t>81,75; 86,7</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,42; 92,23</t>
+          <t>84,08; 92,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,0; 89,44</t>
+          <t>82,45; 89,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,53; 89,73</t>
+          <t>84,65; 89,69</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,56; 93,74</t>
+          <t>84,69; 93,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,14; 89,03</t>
+          <t>74,65; 89,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,03; 90,78</t>
+          <t>82,99; 90,64</t>
         </is>
       </c>
     </row>
@@ -711,12 +712,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>88,36%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,57; 90,77</t>
+          <t>81,53; 90,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,76; 92,9</t>
+          <t>85,62; 92,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 91,0</t>
+          <t>85,14; 90,84</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,82; 92,91</t>
+          <t>78,3; 93,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,18; 84,7</t>
+          <t>68,42; 84,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,22; 86,53</t>
+          <t>75,12; 86,49</t>
         </is>
       </c>
     </row>
@@ -806,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>91,81%</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,44; 94,39</t>
+          <t>82,64; 95,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,57; 95,85</t>
+          <t>87,6; 96,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,03; 94,64</t>
+          <t>87,57; 94,63</t>
         </is>
       </c>
     </row>
@@ -856,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>86,46%</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,5; 89,26</t>
+          <t>85,33; 89,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,53; 87,53</t>
+          <t>83,83; 87,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,02; 87,66</t>
+          <t>85,11; 87,74</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Percepción de la disponibilidad de zonas verdes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>174854</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>176639</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>351493</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>166939; 181184</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>169661; 183609</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>339610; 360153</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>109988</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>145928</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>255916</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>104372; 114407</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>139377; 151555</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>248165; 262955</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86373</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47263</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>133636</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81435; 89916</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42543; 50918</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>127100; 138817</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>141796</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>142764</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>284561</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>133008; 148017</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>136056; 147555</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>274205; 292542</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46217</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73510</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>119728</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41523; 49377</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>64372; 79900</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>110509; 127238</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33045</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>58669</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>91714</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>30204; 34737</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>55498; 61016</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>87475; 94537</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>592274</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>644774</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1237049</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>578526; 603992</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>631020; 658514</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1217791; 1255408</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/PER_DISPO_VERDE-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Clase-trans_dic.xlsx
@@ -498,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes</t>
+          <t>Percepción de la disponibilidad de zonas verdes (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -943,7 +943,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes</t>
+          <t>Percepción de la disponibilidad de zonas verdes (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/PER_DISPO_VERDE-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Clase-trans_dic.xlsx
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,43; 88,38</t>
+          <t>81,0; 88,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,64; 87,27</t>
+          <t>80,32; 87,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,75; 86,7</t>
+          <t>82,21; 86,91</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,08; 92,17</t>
+          <t>83,95; 91,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,45; 89,65</t>
+          <t>82,54; 89,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,65; 89,69</t>
+          <t>84,47; 89,88</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,69; 93,51</t>
+          <t>84,43; 93,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,65; 89,34</t>
+          <t>74,76; 88,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,99; 90,64</t>
+          <t>82,69; 90,49</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,53; 90,73</t>
+          <t>81,3; 90,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,62; 92,86</t>
+          <t>86,05; 92,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,84</t>
+          <t>85,08; 90,76</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,3; 93,11</t>
+          <t>78,7; 93,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,42; 84,92</t>
+          <t>69,07; 84,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,12; 86,49</t>
+          <t>74,89; 86,15</t>
         </is>
       </c>
     </row>
@@ -830,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,64; 95,05</t>
+          <t>81,28; 95,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,6; 96,32</t>
+          <t>87,42; 96,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,57; 94,63</t>
+          <t>87,58; 94,57</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,33; 89,08</t>
+          <t>85,29; 89,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,83; 87,48</t>
+          <t>83,42; 87,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,11; 87,74</t>
+          <t>85,14; 87,8</t>
         </is>
       </c>
     </row>
@@ -1048,17 +1048,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>166939; 181184</t>
+          <t>166057; 180725</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>169661; 183609</t>
+          <t>168982; 183269</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>339610; 360153</t>
+          <t>341495; 361043</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>104372; 114407</t>
+          <t>104207; 114055</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>139377; 151555</t>
+          <t>139529; 151467</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>248165; 262955</t>
+          <t>247655; 263503</t>
         </is>
       </c>
     </row>
@@ -1194,17 +1194,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81435; 89916</t>
+          <t>81185; 89794</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42543; 50918</t>
+          <t>42608; 50692</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>127100; 138817</t>
+          <t>126641; 138584</t>
         </is>
       </c>
     </row>
@@ -1267,17 +1267,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>133008; 148017</t>
+          <t>132632; 147977</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>136056; 147555</t>
+          <t>136737; 147575</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>274205; 292542</t>
+          <t>273992; 292286</t>
         </is>
       </c>
     </row>
@@ -1340,17 +1340,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41523; 49377</t>
+          <t>41735; 49376</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>64372; 79900</t>
+          <t>64984; 79495</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>110509; 127238</t>
+          <t>110181; 126744</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30204; 34737</t>
+          <t>29704; 34830</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55498; 61016</t>
+          <t>55378; 60930</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>87475; 94537</t>
+          <t>87488; 94469</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>578526; 603992</t>
+          <t>578291; 603880</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>631020; 658514</t>
+          <t>627928; 658166</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1217791; 1255408</t>
+          <t>1218168; 1256210</t>
         </is>
       </c>
     </row>
